--- a/biology/Botanique/Sérapias_méconnu/Sérapias_méconnu.xlsx
+++ b/biology/Botanique/Sérapias_méconnu/Sérapias_méconnu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9rapias_m%C3%A9connu</t>
+          <t>Sérapias_méconnu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serapias neglecta
 Le Sérapias méconnu ou Sérapias négligé (Serapias neglecta) est une espèce d'orchidées terrestre d'aire méditerranéenne, appartenant au genre Serapias.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9rapias_m%C3%A9connu</t>
+          <t>Sérapias_méconnu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du latin neglectus, c'est-à-dire négligé (par les botanistes durant un temps).
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9rapias_m%C3%A9connu</t>
+          <t>Sérapias_méconnu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante : assez robuste, de 10 à 30 cm environ.
 Feuilles : 4 à 8, lancéolées.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%A9rapias_m%C3%A9connu</t>
+          <t>Sérapias_méconnu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De mars à mai.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S%C3%A9rapias_m%C3%A9connu</t>
+          <t>Sérapias_méconnu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante de pleine lumière à mi-ombre, jusqu'à 600 m, sur terrains le plus souvent acides.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S%C3%A9rapias_m%C3%A9connu</t>
+          <t>Sérapias_méconnu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Italie métropolitaine (où le type a été trouvé vers Gênes), Sardaigne, France métropolitaine (Var, Alpes-Maritimes) et Corse.
 </t>
@@ -652,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S%C3%A9rapias_m%C3%A9connu</t>
+          <t>Sérapias_méconnu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,7 +692,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, espèce protégée sur le plan national, se trouvant à ce titre sur la liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain (rubrique Monocotylédones).
 En outre, l'espèce est mentionné sur la liste rouge de l'UICN.
